--- a/trunk/documentation/architecture/training/questionnaire.xlsx
+++ b/trunk/documentation/architecture/training/questionnaire.xlsx
@@ -1097,6 +1097,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1121,45 +1136,45 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1168,21 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1489,8 +1489,8 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1503,49 +1503,50 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="33.75" hidden="1">
+      <c r="A1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1"/>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" ht="64.5" customHeight="1">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="64.5" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1553,10 +1554,10 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1570,8 +1571,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="27"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
@@ -1660,7 +1661,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1671,7 +1672,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1682,7 +1683,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1693,7 +1694,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1704,7 +1705,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1715,7 +1716,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1726,7 +1727,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1825,7 +1826,7 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1836,7 +1837,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1847,7 +1848,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1858,7 +1859,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1869,7 +1870,7 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1880,7 +1881,7 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1891,7 +1892,7 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1902,7 +1903,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1934,7 +1935,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1947,59 +1948,60 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" ht="33.75" hidden="1">
+      <c r="A1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1"/>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" ht="64.5" customHeight="1">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="64.5" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2013,8 +2015,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="27"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2028,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2037,7 +2039,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2048,7 +2050,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2059,7 +2061,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2070,7 +2072,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2081,7 +2083,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2092,7 +2094,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2103,7 +2105,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2114,7 +2116,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2125,7 +2127,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2136,7 +2138,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2147,7 +2149,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2158,7 +2160,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2169,7 +2171,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2180,7 +2182,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2191,7 +2193,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2202,7 +2204,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2213,7 +2215,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2224,7 +2226,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2235,7 +2237,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2246,7 +2248,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2257,7 +2259,7 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2268,18 +2270,18 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2290,7 +2292,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2301,7 +2303,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2312,7 +2314,7 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2323,7 +2325,7 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2334,7 +2336,7 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2389,7 +2391,7 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2400,7 +2402,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2432,7 +2434,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2445,49 +2447,50 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" ht="33.75" hidden="1">
+      <c r="A1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1"/>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" ht="64.5" customHeight="1">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="64.5" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2495,10 +2498,10 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2512,8 +2515,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="36"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
@@ -2525,7 +2528,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2536,7 +2539,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2547,7 +2550,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2558,7 +2561,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2569,7 +2572,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2580,7 +2583,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2591,7 +2594,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2602,7 +2605,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2613,7 +2616,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2624,7 +2627,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2635,7 +2638,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2646,7 +2649,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2657,7 +2660,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2668,7 +2671,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2679,7 +2682,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2690,7 +2693,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2701,7 +2704,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2712,7 +2715,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2723,7 +2726,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2734,7 +2737,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2745,7 +2748,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2756,7 +2759,7 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2767,7 +2770,7 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2800,7 +2803,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="24" t="s">
         <v>191</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2811,7 +2814,7 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2822,7 +2825,7 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2833,7 +2836,7 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2844,7 +2847,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2855,7 +2858,7 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2866,7 +2869,7 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2930,8 +2933,8 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31:E31"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2944,48 +2947,50 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" ht="33.75" hidden="1" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" hidden="1" customHeight="1"/>
+    <row r="3" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" hidden="1" customHeight="1"/>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>29</v>
@@ -2993,150 +2998,150 @@
       <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="29"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="44"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="44"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="30"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="44"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="30"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="45"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
@@ -3147,7 +3152,7 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="13"/>
@@ -3156,214 +3161,242 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="44"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="29"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="44"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="44"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="39"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="39"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="44"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="44"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="44"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="44"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="44"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="29"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="44"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="44"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="39"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="44"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="39"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="44"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="39"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="44"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="39"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="44"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="39"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="44"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="39"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="44"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="39"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="44"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="39"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="44"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="39"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="44"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="39"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="44"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="29"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="44"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="A11:A22"/>
@@ -3380,34 +3413,6 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
